--- a/00-Administratif/01-ETIQUETTES + NOMBRE  NOTES SEMESTRIELLES/IELE/ETIQUETTES NUMERIQUES/IELE_NOTES.xlsx
+++ b/00-Administratif/01-ETIQUETTES + NOMBRE  NOTES SEMESTRIELLES/IELE/ETIQUETTES NUMERIQUES/IELE_NOTES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27823"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEXTES\EPSIC\ADMIN\ADMIN_DOMAINE_SANDRO\EXCEL_NOTES_DOMAINE_3\SHARE_POINT_ETIQUETTES_NUMERIQUES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zozma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{551EF201-EA73-4006-B4FB-C37C0D1A05B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37297A58-E966-4A20-A396-6B5CC8EE86A5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A6C6F1-78EF-474F-97A4-A68D49D8445F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{24446EAE-FF7B-4720-8461-B68F93A38A30}"/>
   </bookViews>
@@ -18,20 +18,13 @@
     <sheet name="IELE3_SEMESTRES_56" sheetId="1" r:id="rId3"/>
     <sheet name="IELE4_SEMESTRES_78" sheetId="4" r:id="rId4"/>
     <sheet name="CP_ECG_IELE_BILAN" sheetId="10" r:id="rId5"/>
-    <sheet name="IELE3P_SEMESTRES_12" sheetId="15" r:id="rId6"/>
-    <sheet name="IELE4P_SEMESTRES_34" sheetId="16" r:id="rId7"/>
-    <sheet name="CP_ECG_IELE_3P4P_BILAN" sheetId="17" r:id="rId8"/>
-    <sheet name="EIT_SWISS_CALCULS_MOYENNES" sheetId="6" r:id="rId9"/>
+    <sheet name="EIT_SWISS_CALCULS_MOYENNES" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="BTE3PS1">IELE3P_SEMESTRES_12!$A$11:$C$13</definedName>
-    <definedName name="BTE3PS1MOY">IELE3P_SEMESTRES_12!$D$13</definedName>
-    <definedName name="BTE3PS2">IELE3P_SEMESTRES_12!$F$11:$H$13</definedName>
-    <definedName name="BTE3PS2MOY">IELE3P_SEMESTRES_12!$I$13</definedName>
-    <definedName name="BTE4PS1" localSheetId="6">IELE4P_SEMESTRES_34!$A$11:$C$13</definedName>
-    <definedName name="BTE4PS1MOY" localSheetId="6">IELE4P_SEMESTRES_34!$D$13</definedName>
-    <definedName name="BTE4PS2" localSheetId="6">IELE4P_SEMESTRES_34!$F$11:$H$13</definedName>
-    <definedName name="BTE4PS2MOY" localSheetId="6">IELE4P_SEMESTRES_34!$I$13</definedName>
+    <definedName name="BTE3PS1">#REF!</definedName>
+    <definedName name="BTE3PS1MOY">#REF!</definedName>
+    <definedName name="BTE3PS2">#REF!</definedName>
+    <definedName name="BTE3PS2MOY">#REF!</definedName>
     <definedName name="BTES1">IELE1_SEMESTRES_12!$A$11:$C$13</definedName>
     <definedName name="BTES1MOY">IELE1_SEMESTRES_12!$D$13</definedName>
     <definedName name="BTES2">IELE1_SEMESTRES_12!$F$11:$H$13</definedName>
@@ -42,10 +35,10 @@
     <definedName name="BTES4">IELE2_SEMESTRES_34!$F$21:$H$23</definedName>
     <definedName name="BTES4JS">IELE2_SEMESTRES_34!$F$11:$H$13</definedName>
     <definedName name="BTES4MOY">IELE2_SEMESTRES_34!$I$23</definedName>
-    <definedName name="CP3PS1MOY" localSheetId="5">IELE3P_SEMESTRES_12!$D$30</definedName>
-    <definedName name="CP3PS2MOY" localSheetId="5">IELE3P_SEMESTRES_12!$I$30</definedName>
-    <definedName name="CP4PS1MOY" localSheetId="6">IELE4P_SEMESTRES_34!$D$30</definedName>
-    <definedName name="CP4PS2MOY" localSheetId="6">IELE4P_SEMESTRES_34!$I$30</definedName>
+    <definedName name="CP3PS1MOY">#REF!</definedName>
+    <definedName name="CP3PS2MOY">#REF!</definedName>
+    <definedName name="CP4PS1MOY">#REF!</definedName>
+    <definedName name="CP4PS2MOY">#REF!</definedName>
     <definedName name="CPS1MOY">IELE1_SEMESTRES_12!$D$25</definedName>
     <definedName name="CPS2MOY">IELE1_SEMESTRES_12!$I$25</definedName>
     <definedName name="CPS3MOY">IELE2_SEMESTRES_34!$D$32</definedName>
@@ -54,14 +47,6 @@
     <definedName name="CPS6MOY">IELE3_SEMESTRES_56!$I$25</definedName>
     <definedName name="CPS7MOY" localSheetId="3">IELE4_SEMESTRES_78!$D$25</definedName>
     <definedName name="CPS8MOY" localSheetId="3">IELE4_SEMESTRES_78!$I$25</definedName>
-    <definedName name="DTE3PS1" localSheetId="5">IELE3P_SEMESTRES_12!$A$16:$C$18</definedName>
-    <definedName name="DTE3PS1MOY" localSheetId="5">IELE3P_SEMESTRES_12!$D$18</definedName>
-    <definedName name="DTE3PS2" localSheetId="5">IELE3P_SEMESTRES_12!$F$16:$H$18</definedName>
-    <definedName name="DTE3PS2MOY" localSheetId="5">IELE3P_SEMESTRES_12!$I$18</definedName>
-    <definedName name="DTE4PS1" localSheetId="6">IELE4P_SEMESTRES_34!$A$16:$C$18</definedName>
-    <definedName name="DTE4PS1MOY" localSheetId="6">IELE4P_SEMESTRES_34!$D$18</definedName>
-    <definedName name="DTE4PS2" localSheetId="6">IELE4P_SEMESTRES_34!$F$16:$H$18</definedName>
-    <definedName name="DTE4PS2MOY" localSheetId="6">IELE4P_SEMESTRES_34!$I$18</definedName>
     <definedName name="DTES1">IELE1_SEMESTRES_12!$A$16:$C$18</definedName>
     <definedName name="DTES1MOY">IELE1_SEMESTRES_12!$D$18</definedName>
     <definedName name="DTES2">IELE1_SEMESTRES_12!$F$16:$H$18</definedName>
@@ -89,17 +74,9 @@
     <definedName name="ECGLCS3MOY">IELE2_SEMESTRES_34!$D$38</definedName>
     <definedName name="ECGLCS4">IELE2_SEMESTRES_34!$F$36:$H$38</definedName>
     <definedName name="ECGLCS4MOY">IELE2_SEMESTRES_34!$I$38</definedName>
-    <definedName name="ECGLCS5" localSheetId="5">IELE3P_SEMESTRES_12!$A$34:$C$36</definedName>
-    <definedName name="ECGLCS5" localSheetId="6">IELE4P_SEMESTRES_34!$A$34:$C$36</definedName>
     <definedName name="ECGLCS5">IELE3_SEMESTRES_56!$A$29:$C$31</definedName>
-    <definedName name="ECGLCS5MOY" localSheetId="5">IELE3P_SEMESTRES_12!$D$36</definedName>
-    <definedName name="ECGLCS5MOY" localSheetId="6">IELE4P_SEMESTRES_34!$D$36</definedName>
     <definedName name="ECGLCS5MOY">IELE3_SEMESTRES_56!$D$31</definedName>
-    <definedName name="ECGLCS6" localSheetId="5">IELE3P_SEMESTRES_12!$F$34:$H$36</definedName>
-    <definedName name="ECGLCS6" localSheetId="6">IELE4P_SEMESTRES_34!$F$34:$H$36</definedName>
     <definedName name="ECGLCS6">IELE3_SEMESTRES_56!$F$29:$H$31</definedName>
-    <definedName name="ECGLCS6MOY" localSheetId="5">IELE3P_SEMESTRES_12!$I$36</definedName>
-    <definedName name="ECGLCS6MOY" localSheetId="6">IELE4P_SEMESTRES_34!$I$36</definedName>
     <definedName name="ECGLCS6MOY">IELE3_SEMESTRES_56!$I$31</definedName>
     <definedName name="ECGLCS7" localSheetId="3">IELE4_SEMESTRES_78!$A$29:$C$31</definedName>
     <definedName name="ECGLCS7MOY" localSheetId="3">IELE4_SEMESTRES_78!$D$31</definedName>
@@ -109,11 +86,7 @@
     <definedName name="ECGS2MOY">IELE1_SEMESTRES_12!$I$37</definedName>
     <definedName name="ECGS3MOY">IELE2_SEMESTRES_34!$D$44</definedName>
     <definedName name="ECGS4MOY">IELE2_SEMESTRES_34!$I$44</definedName>
-    <definedName name="ECGS5MOY" localSheetId="5">IELE3P_SEMESTRES_12!$D$42</definedName>
-    <definedName name="ECGS5MOY" localSheetId="6">IELE4P_SEMESTRES_34!$D$42</definedName>
     <definedName name="ECGS5MOY">IELE3_SEMESTRES_56!$D$37</definedName>
-    <definedName name="ECGS6MOY" localSheetId="5">IELE3P_SEMESTRES_12!$I$42</definedName>
-    <definedName name="ECGS6MOY" localSheetId="6">IELE4P_SEMESTRES_34!$I$42</definedName>
     <definedName name="ECGS6MOY">IELE3_SEMESTRES_56!$I$37</definedName>
     <definedName name="ECGS7MOY" localSheetId="3">IELE4_SEMESTRES_78!$D$37</definedName>
     <definedName name="ECGS8MOY" localSheetId="3">IELE4_SEMESTRES_78!$I$37</definedName>
@@ -126,39 +99,20 @@
     <definedName name="ECGSOS3MOY">IELE2_SEMESTRES_34!$D$42</definedName>
     <definedName name="ECGSOS4">IELE2_SEMESTRES_34!$F$40:$H$42</definedName>
     <definedName name="ECGSOS4MOY">IELE2_SEMESTRES_34!$I$42</definedName>
-    <definedName name="ECGSOS5" localSheetId="5">IELE3P_SEMESTRES_12!$A$38:$C$40</definedName>
-    <definedName name="ECGSOS5" localSheetId="6">IELE4P_SEMESTRES_34!$A$38:$C$40</definedName>
     <definedName name="ECGSOS5">IELE3_SEMESTRES_56!$A$33:$C$35</definedName>
-    <definedName name="ECGSOS5MOY" localSheetId="5">IELE3P_SEMESTRES_12!$D$40</definedName>
-    <definedName name="ECGSOS5MOY" localSheetId="6">IELE4P_SEMESTRES_34!$D$40</definedName>
     <definedName name="ECGSOS5MOY">IELE3_SEMESTRES_56!$D$35</definedName>
-    <definedName name="ECGSOS6" localSheetId="5">IELE3P_SEMESTRES_12!$F$38:$H$40</definedName>
-    <definedName name="ECGSOS6" localSheetId="6">IELE4P_SEMESTRES_34!$F$38:$H$40</definedName>
     <definedName name="ECGSOS6">IELE3_SEMESTRES_56!$F$33:$H$35</definedName>
-    <definedName name="ECGSOS6MOY" localSheetId="5">IELE3P_SEMESTRES_12!$I$40</definedName>
-    <definedName name="ECGSOS6MOY" localSheetId="6">IELE4P_SEMESTRES_34!$I$40</definedName>
     <definedName name="ECGSOS6MOY">IELE3_SEMESTRES_56!$I$35</definedName>
     <definedName name="ECGSOS7" localSheetId="3">IELE4_SEMESTRES_78!$A$33:$C$35</definedName>
     <definedName name="ECGSOS7MOY" localSheetId="3">IELE4_SEMESTRES_78!$D$35</definedName>
     <definedName name="ECGSOS8" localSheetId="3">IELE4_SEMESTRES_78!$F$33:$H$35</definedName>
     <definedName name="ECGSOS8MOY" localSheetId="3">IELE4_SEMESTRES_78!$I$35</definedName>
-    <definedName name="Print_Area" localSheetId="7">CP_ECG_IELE_3P4P_BILAN!$A$1:$I$30</definedName>
     <definedName name="Print_Area" localSheetId="4">CP_ECG_IELE_BILAN!$A$1:$I$34</definedName>
     <definedName name="Print_Area" localSheetId="0">IELE1_SEMESTRES_12!$A$1:$I$41</definedName>
     <definedName name="Print_Area" localSheetId="1">IELE2_SEMESTRES_34!$A$1:$I$48</definedName>
     <definedName name="Print_Area" localSheetId="2">IELE3_SEMESTRES_56!$A$1:$I$41</definedName>
-    <definedName name="Print_Area" localSheetId="5">IELE3P_SEMESTRES_12!$A$1:$I$46</definedName>
     <definedName name="Print_Area" localSheetId="3">IELE4_SEMESTRES_78!$A$1:$I$41</definedName>
-    <definedName name="Print_Area" localSheetId="6">IELE4P_SEMESTRES_34!$A$1:$I$46</definedName>
-    <definedName name="TCO3PS1" localSheetId="5">IELE3P_SEMESTRES_12!$A$26:$C$28</definedName>
-    <definedName name="TCO3PS1MOY" localSheetId="5">IELE3P_SEMESTRES_12!$D$28</definedName>
     <definedName name="TCO3PS1MOY">IELE3_SEMESTRES_56!$D$23</definedName>
-    <definedName name="TCO3PS2" localSheetId="5">IELE3P_SEMESTRES_12!$F$26:$H$28</definedName>
-    <definedName name="TCO3PS2MOY" localSheetId="5">IELE3P_SEMESTRES_12!$I$28</definedName>
-    <definedName name="TCO4PS1" localSheetId="6">IELE4P_SEMESTRES_34!$A$26:$C$28</definedName>
-    <definedName name="TCO4PS1MOY" localSheetId="6">IELE4P_SEMESTRES_34!$D$28</definedName>
-    <definedName name="TCO4PS2" localSheetId="6">IELE4P_SEMESTRES_34!$F$26:$H$28</definedName>
-    <definedName name="TCO4PS2MOY" localSheetId="6">IELE4P_SEMESTRES_34!$I$28</definedName>
     <definedName name="TCOS5">IELE3_SEMESTRES_56!$A$21:$C$23</definedName>
     <definedName name="TCOS6">IELE3_SEMESTRES_56!$F$21:$H$23</definedName>
     <definedName name="TCOS6MOY">IELE3_SEMESTRES_56!$I$23</definedName>
@@ -166,14 +120,6 @@
     <definedName name="TCOS7MOY" localSheetId="3">IELE4_SEMESTRES_78!$D$23</definedName>
     <definedName name="TCOS8" localSheetId="3">IELE4_SEMESTRES_78!$F$21:$H$23</definedName>
     <definedName name="TCOS8MOY" localSheetId="3">IELE4_SEMESTRES_78!$I$23</definedName>
-    <definedName name="TSE3PS1" localSheetId="5">IELE3P_SEMESTRES_12!$A$21:$C$23</definedName>
-    <definedName name="TSE3PS1MOY" localSheetId="5">IELE3P_SEMESTRES_12!$D$23</definedName>
-    <definedName name="TSE3PS2" localSheetId="5">IELE3P_SEMESTRES_12!$F$21:$H$23</definedName>
-    <definedName name="TSE3PS2MOY" localSheetId="5">IELE3P_SEMESTRES_12!$I$23</definedName>
-    <definedName name="TSE4PS1" localSheetId="6">IELE4P_SEMESTRES_34!$A$21:$C$23</definedName>
-    <definedName name="TSE4PS1MOY" localSheetId="6">IELE4P_SEMESTRES_34!$D$23</definedName>
-    <definedName name="TSE4PS2" localSheetId="6">IELE4P_SEMESTRES_34!$F$21:$H$23</definedName>
-    <definedName name="TSE4PS2MOY" localSheetId="6">IELE4P_SEMESTRES_34!$I$23</definedName>
     <definedName name="TSES5">IELE3_SEMESTRES_56!$A$16:$C$18</definedName>
     <definedName name="TSES5MOY">IELE3_SEMESTRES_56!$D$18</definedName>
     <definedName name="TSES6">IELE3_SEMESTRES_56!$F$16:$H$18</definedName>
@@ -190,14 +136,11 @@
     <definedName name="TTRS3MOY">IELE2_SEMESTRES_34!#REF!</definedName>
     <definedName name="TTRS4">IELE2_SEMESTRES_34!#REF!</definedName>
     <definedName name="TTRS4MOY">IELE2_SEMESTRES_34!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">CP_ECG_IELE_3P4P_BILAN!$A$1:$I$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">CP_ECG_IELE_BILAN!$A$1:$I$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">IELE1_SEMESTRES_12!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">IELE2_SEMESTRES_34!$A$1:$I$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">IELE3_SEMESTRES_56!$A$1:$I$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">IELE3P_SEMESTRES_12!$A$1:$I$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">IELE4_SEMESTRES_78!$A$1:$I$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">IELE4P_SEMESTRES_34!$A$1:$I$46</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -233,7 +176,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO</t>
         </r>
@@ -247,7 +190,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO</t>
         </r>
@@ -261,7 +204,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO</t>
         </r>
@@ -275,7 +218,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO</t>
         </r>
@@ -289,7 +232,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO</t>
         </r>
@@ -303,7 +246,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO REF</t>
         </r>
@@ -317,7 +260,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Math</t>
         </r>
@@ -331,7 +274,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Math</t>
         </r>
@@ -345,7 +288,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Math</t>
         </r>
@@ -359,7 +302,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Math</t>
         </r>
@@ -373,7 +316,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Math Réf</t>
         </r>
@@ -387,7 +330,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>DESSIN</t>
         </r>
@@ -401,7 +344,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>DESSIN</t>
         </r>
@@ -415,7 +358,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>DESSIN</t>
         </r>
@@ -429,7 +372,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Schéma</t>
         </r>
@@ -443,7 +386,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Schéma</t>
         </r>
@@ -457,7 +400,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Schéma</t>
         </r>
@@ -471,7 +414,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Prévention</t>
         </r>
@@ -485,7 +428,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Prévention</t>
         </r>
@@ -499,7 +442,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Prévention</t>
         </r>
@@ -513,7 +456,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Matériaux</t>
         </r>
@@ -527,7 +470,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Matériaux</t>
         </r>
@@ -541,7 +484,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Matériaux</t>
         </r>
@@ -565,7 +508,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO</t>
         </r>
@@ -579,7 +522,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO</t>
         </r>
@@ -593,7 +536,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO</t>
         </r>
@@ -607,7 +550,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO</t>
         </r>
@@ -621,7 +564,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO</t>
         </r>
@@ -635,7 +578,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO réf.</t>
         </r>
@@ -649,7 +592,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>PHYSIQUE</t>
         </r>
@@ -663,7 +606,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>PHYSIQUE</t>
         </r>
@@ -677,7 +620,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>PHYSIQUE</t>
         </r>
@@ -691,7 +634,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>PHYSIQUE</t>
         </r>
@@ -705,7 +648,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>PHYSIQUE</t>
         </r>
@@ -719,7 +662,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>NIBT</t>
         </r>
@@ -733,7 +676,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>NIBT</t>
         </r>
@@ -747,7 +690,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>NIBT</t>
         </r>
@@ -761,7 +704,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>NIBT</t>
         </r>
@@ -775,7 +718,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>NIBT réf.</t>
         </r>
@@ -789,7 +732,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Schéma</t>
         </r>
@@ -803,7 +746,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Schéma</t>
         </r>
@@ -817,7 +760,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Schéma</t>
         </r>
@@ -831,7 +774,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Schéma</t>
         </r>
@@ -845,7 +788,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Schéma réf.</t>
         </r>
@@ -859,7 +802,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO</t>
         </r>
@@ -873,7 +816,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO</t>
         </r>
@@ -887,7 +830,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Electronique</t>
         </r>
@@ -901,7 +844,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO</t>
         </r>
@@ -915,7 +858,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO</t>
         </r>
@@ -929,7 +872,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Electronique</t>
         </r>
@@ -943,7 +886,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Production/ Appareils élec.</t>
         </r>
@@ -957,7 +900,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Production/ Appareils élec.</t>
         </r>
@@ -971,7 +914,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Electronique</t>
         </r>
@@ -985,7 +928,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Production/ Appareils élec.</t>
         </r>
@@ -999,7 +942,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Production/ Appareils élec.</t>
         </r>
@@ -1013,7 +956,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Electronique</t>
         </r>
@@ -1027,7 +970,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>MATH</t>
         </r>
@@ -1041,7 +984,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>MATH</t>
         </r>
@@ -1055,7 +998,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>MATH</t>
         </r>
@@ -1069,7 +1012,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>MATH</t>
         </r>
@@ -1083,7 +1026,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Plans</t>
         </r>
@@ -1097,7 +1040,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Plans</t>
         </r>
@@ -1111,7 +1054,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Plans</t>
         </r>
@@ -1125,7 +1068,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Plans</t>
         </r>
@@ -1149,7 +1092,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>NIBT</t>
         </r>
@@ -1163,7 +1106,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>NIBT</t>
         </r>
@@ -1177,7 +1120,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>NIBT</t>
         </r>
@@ -1191,7 +1134,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>NIBT</t>
         </r>
@@ -1205,7 +1148,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Schéma</t>
         </r>
@@ -1219,7 +1162,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Schéma</t>
         </r>
@@ -1233,7 +1176,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Schéma</t>
         </r>
@@ -1247,7 +1190,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Schéma</t>
         </r>
@@ -1261,7 +1204,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO</t>
         </r>
@@ -1275,7 +1218,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO</t>
         </r>
@@ -1289,7 +1232,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO</t>
         </r>
@@ -1303,7 +1246,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO</t>
         </r>
@@ -1317,7 +1260,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO</t>
         </r>
@@ -1331,7 +1274,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO</t>
         </r>
@@ -1345,7 +1288,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Télématique</t>
         </r>
@@ -1359,7 +1302,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Télématique</t>
         </r>
@@ -1373,7 +1316,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Télématique</t>
         </r>
@@ -1387,7 +1330,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Télématique</t>
         </r>
@@ -1401,7 +1344,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Télématique</t>
         </r>
@@ -1415,7 +1358,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Télématique</t>
         </r>
@@ -1439,7 +1382,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Schéma</t>
         </r>
@@ -1453,7 +1396,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Schéma</t>
         </r>
@@ -1467,7 +1410,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Schéma</t>
         </r>
@@ -1481,7 +1424,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>NIBT</t>
         </r>
@@ -1495,7 +1438,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>NIBT</t>
         </r>
@@ -1509,7 +1452,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Schéma</t>
         </r>
@@ -1523,7 +1466,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Schéma</t>
         </r>
@@ -1537,7 +1480,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO</t>
         </r>
@@ -1551,7 +1494,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO</t>
         </r>
@@ -1565,7 +1508,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO</t>
         </r>
@@ -1579,7 +1522,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO</t>
         </r>
@@ -1593,7 +1536,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO</t>
         </r>
@@ -1607,7 +1550,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ELECTRO</t>
         </r>
@@ -1621,7 +1564,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Appareils électriques</t>
         </r>
@@ -1635,7 +1578,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Appareils électriques</t>
         </r>
@@ -1649,7 +1592,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Automates programmables (API)</t>
         </r>
@@ -1663,7 +1606,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Automates programmables (API)</t>
         </r>
@@ -1677,7 +1620,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Télématique</t>
         </r>
@@ -1691,7 +1634,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Télématique</t>
         </r>
@@ -1705,811 +1648,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Télématique</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>zozma</author>
-  </authors>
-  <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{A598E8CC-C58F-4471-A0EE-ECC444CD77CF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Mathématiques</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{4A4168BF-0C55-469B-91B8-7DD2C6C4C4BD}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Mathématiques</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{2C2E92FA-6619-4CF6-83C8-B460C0C135E8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Mathématiques</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{F777DC9D-8CBC-4049-A63E-1B7E9E90B494}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Mathématiques</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{B561E2A1-2512-41C1-B8CD-D22888D9E375}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Physique / Chimie</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{5D2105B5-2281-4813-9667-11A00D8A1EA6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Physique / Chimie</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{DEBD9FEC-401C-47A8-B39A-9245AF998666}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Physique / Chimie</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{BADC0D6E-398D-498B-B6CA-B5E36A21DE45}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Physique / Chimie</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{CB6C2826-F6C9-42BF-B4E4-BB15AC1EB590}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>NIBT</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{A93591D2-19A3-4BA2-BA10-AF121129460A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>NIBT</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{59BA8358-831D-4722-95F8-CAF18A03AE2F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>NIBT</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{9EB4835B-2FFA-4B97-B0B8-88FACBC9B3D0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>NIBT</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{FE24AD65-3C16-43BD-AB02-53985B87000E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Schéma</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{A0A34DF3-7C4D-423D-BDE0-0FCB7920115E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Schéma</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{748C0691-6EBE-4F78-A8EF-F264853E8107}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Schéma</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{DFD88BDC-E02D-4E09-BD7E-A9C6A7E426E5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Schéma</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{CBA271CB-8746-42FA-BBE0-A6509A0147C5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>ELECTRO</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{C9F4AAE0-737B-4E2A-B92C-1BAE23FC49A8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>ELECTRO</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{3C00F7E8-E05A-4297-B6B8-E4E287DC1B52}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>ELECTRO</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F21" authorId="0" shapeId="0" xr:uid="{B1A969A9-4606-4AB9-AC35-A5242ABDE27C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>ELECTRO</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{06DA90FC-CB56-4317-BD0E-4652CD6F9F2A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>ELECTRO</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H21" authorId="0" shapeId="0" xr:uid="{9A1DBF94-C77A-442D-B953-B20A0C9E9DD3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>ELECTRO</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{0635029B-E109-4FDE-A075-636FF29E268D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Télématique</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{AB2CDD6D-902C-4990-95A4-1B0FF57AB0D9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Télématique</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{2975DB35-4F3B-4163-AC31-87592A29E688}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Télématique</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{21333FBD-BDC0-4879-AC13-ABD8C958499E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Télématique</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G26" authorId="0" shapeId="0" xr:uid="{D83DDDBB-70F6-462D-83D0-0126AA4210DB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Télématique</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H26" authorId="0" shapeId="0" xr:uid="{72BFB848-8C9C-459B-84F9-C557D97D6097}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Télématique</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>zozma</author>
-  </authors>
-  <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{1419ABB8-DE43-44DC-B97D-8D3EAF51425E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Electronique</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{467DF1F8-35BA-4D59-9734-6B1DCCAB0C54}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Electronique</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{AF395D86-008E-4AD5-9B7E-D0865E67F2EA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Electronique</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{D90FFD34-980C-42C4-8A87-F75030B5F0E5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Electronique</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{6BEF5EFD-886E-4E62-8FF7-37AB010D472C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Electronique</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{86C54762-9F81-4981-BF09-132074EB15BB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Electronique</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{5140E204-4BEA-4D9A-8E34-34DEA884F6E3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Schéma</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{CDED666C-EE75-4095-B9DD-3B9C83375DC4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Schéma</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{D52D714C-91FA-4AA6-B648-8446E7EB9430}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Schéma</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{69525100-01C1-4445-8FAD-8CF1E2D8772B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Schéma / NIBT</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{5BA7FD3D-A015-4CA7-9873-53C753D5794F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Schéma / NIBT</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{8EB0899B-F4A1-4691-874F-57BCA9C8694E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Schéma / NIBT</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{369BAF31-0A75-4DDC-B71F-0B7A873C43E5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>ELECTRO</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{1A97E2EA-758C-45DD-8B18-88A5C00401FC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>ELECTRO</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{0C6A6CBA-E4EA-4566-A318-A4C59AC4B280}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>ELECTRO</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F21" authorId="0" shapeId="0" xr:uid="{B373279D-FF1F-4148-8FE4-1EC29BDFFF56}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>ELECTRO</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{92FB29D1-33DB-4EEF-9E34-2135324AFF3E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>ELECTRO</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H21" authorId="0" shapeId="0" xr:uid="{F4748809-F822-474E-B779-224EDBEA35EE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>ELECTRO</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{471EE6E0-6114-4D7F-BC4B-3688B584609B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Appareils électriques/API</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{83B8EA62-A0B4-439B-84EC-CBC405DA845F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Appareils électriques/API</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{5BA7633D-3361-41A7-AB90-95EA0B5F8A12}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Appareils électriques/API</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{23F33EC9-7F14-4EED-B7E6-BE8CDA9FCC76}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Appareils électriques/API</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{ADA3DAE1-9C79-4CCA-BE7E-13187D22EB0B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Télématique</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{B119A052-AC0F-4E47-BC0B-6F83B3691255}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Télématique</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{1A4489DB-5C59-4B18-8AEE-91D30D742CC5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Télématique</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{64492569-676D-4BE7-9B38-C5ED40277B23}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Télématique</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G26" authorId="0" shapeId="0" xr:uid="{6D15316A-2634-47FF-ABEF-52BD073D9B53}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Télématique</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H26" authorId="0" shapeId="0" xr:uid="{13DEB122-19FE-4138-860F-7D2A033338E4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Télématique</t>
         </r>
@@ -2520,7 +1659,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="37">
   <si>
     <t>Installateur/trice-électricien/ne CFC</t>
   </si>
@@ -2630,9 +1769,6 @@
     <t>Moyenne d'«ECG» 4 ans</t>
   </si>
   <si>
-    <t>PASSERELLE ELMO-&gt; IELE</t>
-  </si>
-  <si>
     <t>EIT.SWISS PQ IELE</t>
   </si>
 </sst>
@@ -2640,7 +1776,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2716,7 +1852,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2743,13 +1879,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2854,7 +1983,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2918,9 +2047,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2929,235 +2055,7 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="133">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="106">
     <dxf>
       <font>
         <color theme="0"/>
@@ -4423,16 +3321,16 @@
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="8.7109375" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" style="18"/>
+    <col min="1" max="9" width="8.6640625" customWidth="1"/>
+    <col min="26" max="26" width="11.5546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="45" customHeight="1">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -4448,12 +3346,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z2" s="18">
         <v>5.5</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="5" customFormat="1" ht="25.15" customHeight="1">
+    <row r="3" spans="1:26" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -4467,12 +3365,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z4" s="18">
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="30" customHeight="1">
+    <row r="5" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>2</v>
       </c>
@@ -4488,12 +3386,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z6" s="18">
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>3</v>
       </c>
@@ -4515,12 +3413,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z8" s="18">
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4538,7 +3436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -4556,16 +3454,10 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="17">
-        <v>4.5</v>
-      </c>
-      <c r="B11" s="17">
-        <v>3.5</v>
-      </c>
-      <c r="C11" s="17">
-        <v>2</v>
-      </c>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="17"/>
@@ -4576,13 +3468,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15" thickBot="1">
-      <c r="A12" s="17">
-        <v>4</v>
-      </c>
-      <c r="B12" s="17">
-        <v>5</v>
-      </c>
+    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="14"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -4591,13 +3479,13 @@
       <c r="H12" s="17"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15" thickBot="1">
+    <row r="13" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="6">
+      <c r="D13" s="6" t="str">
         <f>IF(ISERROR(AVERAGE(BTES1)),"",MROUND(AVERAGE(BTES1),0.5))</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="14"/>
@@ -4608,7 +3496,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -4623,7 +3511,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -4638,16 +3526,10 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="17">
-        <v>5.5</v>
-      </c>
-      <c r="B16" s="17">
-        <v>5</v>
-      </c>
-      <c r="C16" s="17">
-        <v>4</v>
-      </c>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="17"/>
@@ -4655,7 +3537,7 @@
       <c r="H16" s="17"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:26" ht="15" thickBot="1">
+    <row r="17" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="14"/>
@@ -4666,13 +3548,13 @@
       <c r="H17" s="14"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:26" ht="15" thickBot="1">
+    <row r="18" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="6">
+      <c r="D18" s="6" t="str">
         <f>IF(ISERROR(AVERAGE(DTES1)),"",MROUND(AVERAGE(DTES1),0.5))</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="14"/>
@@ -4683,7 +3565,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
@@ -4698,7 +3580,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -4713,39 +3595,29 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="17">
-        <v>6</v>
-      </c>
-      <c r="G21" s="17">
-        <v>4.5</v>
-      </c>
-      <c r="H21" s="17">
-        <v>4</v>
-      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="15" thickBot="1">
+    <row r="22" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="14">
-        <v>5</v>
-      </c>
-      <c r="G22" s="14">
-        <v>5.5</v>
-      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:26" ht="15" customHeight="1" thickBot="1">
+    <row r="23" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -4754,20 +3626,16 @@
         <v/>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="G23" s="14">
-        <v>5</v>
-      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="6">
+      <c r="I23" s="6" t="str">
         <f>IF(ISERROR(AVERAGE(TTRS2)),"",MROUND(AVERAGE(TTRS2),0.5))</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="Z23" s="19"/>
     </row>
-    <row r="24" spans="1:26" ht="15" thickBot="1">
+    <row r="24" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -4778,15 +3646,15 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="15.6" thickTop="1" thickBot="1">
+    <row r="25" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="7">
+      <c r="D25" s="7" t="str">
         <f>IF(ISERROR(AVERAGE(BTES1MOY,DTES1MOY,TTRS1MOY)),"",MROUND(AVERAGE(BTES1MOY,DTES1MOY,TTRS1MOY),0.5))</f>
-        <v>4.5</v>
+        <v/>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
@@ -4794,13 +3662,13 @@
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="7">
+      <c r="I25" s="7" t="str">
         <f>IF(ISERROR(AVERAGE(BTES2MOY,DTES2MOY,TTRS2MOY)),"",MROUND(AVERAGE(BTES2MOY,DTES2MOY,TTRS2MOY),0.5))</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="15" thickTop="1"/>
-    <row r="27" spans="1:26" s="1" customFormat="1" ht="30" customHeight="1">
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:26" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="22" t="s">
         <v>13</v>
       </c>
@@ -4814,7 +3682,7 @@
       <c r="I27" s="22"/>
       <c r="Z27" s="18"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
@@ -4829,7 +3697,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -4840,7 +3708,7 @@
       <c r="H29" s="17"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:26" ht="15" thickBot="1">
+    <row r="30" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -4851,7 +3719,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:26" ht="15" thickBot="1">
+    <row r="31" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -4868,7 +3736,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
@@ -4883,7 +3751,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -4894,7 +3762,7 @@
       <c r="H33" s="17"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1">
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -4905,7 +3773,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1">
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -4922,7 +3790,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1">
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4933,7 +3801,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+    <row r="37" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>16</v>
       </c>
@@ -4954,13 +3822,13 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" thickTop="1"/>
-    <row r="40" spans="1:9">
+    <row r="38" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
@@ -4975,69 +3843,69 @@
     <mergeCell ref="A27:I27"/>
   </mergeCells>
   <conditionalFormatting sqref="A11:C12 F11:H12 A16:C18 F16:H18 A21:C23 F21:H23 A29:C31 F29:H31 A33:C35 F33:H35">
-    <cfRule type="cellIs" dxfId="132" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="44" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:D13 F13:I13 D18 I18 D23 I23 D25 I25 D31 I31 D35 I35 D37 I37">
-    <cfRule type="cellIs" dxfId="131" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="45" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsBlanks" dxfId="130" priority="40">
+    <cfRule type="containsBlanks" dxfId="103" priority="40">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C12 H11:H12 A13:C13 F13:H13 A17:C18 F17:H18 A22:C23 F22:H23 A30:C31 F30:H31 A34:C35 F34:H35">
-    <cfRule type="containsBlanks" dxfId="129" priority="42">
+    <cfRule type="containsBlanks" dxfId="102" priority="42">
       <formula>LEN(TRIM(A11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsBlanks" dxfId="128" priority="6">
+    <cfRule type="containsBlanks" dxfId="101" priority="6">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="127" priority="7">
+    <cfRule type="containsBlanks" dxfId="100" priority="7">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="126" priority="8">
+    <cfRule type="containsBlanks" dxfId="99" priority="8">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="125" priority="9">
+    <cfRule type="containsBlanks" dxfId="98" priority="9">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:G11">
-    <cfRule type="containsBlanks" dxfId="124" priority="36">
+    <cfRule type="containsBlanks" dxfId="97" priority="36">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:G12 A16:C16 F16:H16 A11:B12 A21:C21 F21:H21 A29:C29 F29:H29 A33:C33 F33:H33">
-    <cfRule type="containsBlanks" dxfId="123" priority="43">
+    <cfRule type="containsBlanks" dxfId="96" priority="43">
       <formula>LEN(TRIM(A11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:H11">
-    <cfRule type="containsBlanks" dxfId="122" priority="30">
+    <cfRule type="containsBlanks" dxfId="95" priority="30">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsBlanks" dxfId="121" priority="1">
+    <cfRule type="containsBlanks" dxfId="94" priority="1">
       <formula>LEN(TRIM(H12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsBlanks" dxfId="120" priority="4">
+    <cfRule type="containsBlanks" dxfId="93" priority="4">
       <formula>LEN(TRIM(H16))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="119" priority="5">
+    <cfRule type="containsBlanks" dxfId="92" priority="5">
       <formula>LEN(TRIM(H16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3512">
-    <cfRule type="cellIs" dxfId="118" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="46" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5064,13 +3932,13 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="8.7109375" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" style="18"/>
+    <col min="1" max="9" width="8.6640625" customWidth="1"/>
+    <col min="26" max="26" width="11.5546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="45" customHeight="1">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -5086,12 +3954,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z2" s="18">
         <v>5.5</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="5" customFormat="1" ht="25.15" customHeight="1">
+    <row r="3" spans="1:26" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -5105,12 +3973,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z4" s="18">
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="30" customHeight="1">
+    <row r="5" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>2</v>
       </c>
@@ -5126,12 +3994,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z6" s="18">
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>19</v>
       </c>
@@ -5153,7 +4021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -5167,7 +4035,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -5185,7 +4053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -5203,7 +4071,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -5217,7 +4085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="14"/>
@@ -5228,7 +4096,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -5239,7 +4107,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -5254,7 +4122,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -5269,7 +4137,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
@@ -5280,7 +4148,7 @@
       <c r="H16" s="17"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="14"/>
@@ -5291,7 +4159,7 @@
       <c r="H17" s="17"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -5302,7 +4170,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -5317,7 +4185,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -5332,7 +4200,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -5343,7 +4211,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1">
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -5354,7 +4222,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="14.45" customHeight="1" thickBot="1">
+    <row r="23" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="14"/>
@@ -5371,7 +4239,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -5386,7 +4254,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -5401,7 +4269,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="14"/>
@@ -5412,7 +4280,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1">
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -5423,7 +4291,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1">
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -5440,7 +4308,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -5451,7 +4319,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1">
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -5462,7 +4330,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+    <row r="32" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
@@ -5483,8 +4351,8 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15" thickTop="1"/>
-    <row r="34" spans="1:26" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="33" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:26" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="22" t="s">
         <v>13</v>
       </c>
@@ -5498,7 +4366,7 @@
       <c r="I34" s="22"/>
       <c r="Z34" s="18"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -5513,7 +4381,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -5524,7 +4392,7 @@
       <c r="H36" s="17"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:26" ht="15" thickBot="1">
+    <row r="37" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -5535,7 +4403,7 @@
       <c r="H37" s="14"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:26" ht="15" thickBot="1">
+    <row r="38" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -5552,7 +4420,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -5565,7 +4433,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -5576,7 +4444,7 @@
       <c r="H40" s="17"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:26" ht="15" thickBot="1">
+    <row r="41" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -5587,7 +4455,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:26" ht="15" thickBot="1">
+    <row r="42" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -5604,7 +4472,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="15" thickBot="1">
+    <row r="43" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -5615,7 +4483,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:26" ht="15.6" thickTop="1" thickBot="1">
+    <row r="44" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>16</v>
       </c>
@@ -5636,13 +4504,13 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="15" thickTop="1"/>
-    <row r="47" spans="1:26">
+    <row r="45" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>18</v>
       </c>
@@ -5657,214 +4525,214 @@
     <mergeCell ref="A34:I34"/>
   </mergeCells>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="cellIs" dxfId="117" priority="118" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="118" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="116" priority="117">
+    <cfRule type="containsBlanks" dxfId="89" priority="117">
       <formula>LEN(TRIM(A12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B13">
-    <cfRule type="containsBlanks" dxfId="115" priority="133">
+    <cfRule type="containsBlanks" dxfId="88" priority="133">
       <formula>LEN(TRIM(A13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B17">
-    <cfRule type="containsBlanks" dxfId="114" priority="68">
+    <cfRule type="containsBlanks" dxfId="87" priority="68">
       <formula>LEN(TRIM(A16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B23">
-    <cfRule type="containsBlanks" dxfId="113" priority="15">
+    <cfRule type="containsBlanks" dxfId="86" priority="15">
       <formula>LEN(TRIM(A22))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="16" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:B23">
-    <cfRule type="cellIs" dxfId="111" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="14" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="110" priority="13">
+    <cfRule type="containsBlanks" dxfId="83" priority="13">
       <formula>LEN(TRIM(A23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27">
-    <cfRule type="containsBlanks" dxfId="109" priority="158">
+    <cfRule type="containsBlanks" dxfId="82" priority="158">
       <formula>LEN(TRIM(A27))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 F11:H11 F16:H17 A16:C16 A17:B17">
-    <cfRule type="cellIs" dxfId="108" priority="156" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="156" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:C13 F13:H13">
-    <cfRule type="cellIs" dxfId="107" priority="157" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="157" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:C22">
-    <cfRule type="containsBlanks" dxfId="106" priority="230">
+    <cfRule type="containsBlanks" dxfId="79" priority="230">
       <formula>LEN(TRIM(A21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="containsBlanks" dxfId="105" priority="60">
+    <cfRule type="containsBlanks" dxfId="78" priority="60">
       <formula>LEN(TRIM(B17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsBlanks" dxfId="104" priority="120">
+    <cfRule type="containsBlanks" dxfId="77" priority="120">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="103" priority="119">
+    <cfRule type="containsBlanks" dxfId="76" priority="119">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="102" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="49" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C13">
-    <cfRule type="containsBlanks" dxfId="101" priority="48">
+    <cfRule type="containsBlanks" dxfId="74" priority="48">
       <formula>LEN(TRIM(C12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C18 A18:B18 F18:H18">
-    <cfRule type="containsBlanks" dxfId="100" priority="46">
+    <cfRule type="containsBlanks" dxfId="73" priority="46">
       <formula>LEN(TRIM(A16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C18 A18:B18 F18:H18">
-    <cfRule type="cellIs" dxfId="99" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="47" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22 A28:C29 F28:H29 A37:C38 F37:H38 A41:C42 F41:H42">
-    <cfRule type="containsBlanks" dxfId="98" priority="232">
+    <cfRule type="containsBlanks" dxfId="71" priority="232">
       <formula>LEN(TRIM(A21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="containsBlanks" dxfId="97" priority="26">
+    <cfRule type="containsBlanks" dxfId="70" priority="26">
       <formula>LEN(TRIM(C23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="containsBlanks" dxfId="96" priority="182">
+    <cfRule type="containsBlanks" dxfId="69" priority="182">
       <formula>LEN(TRIM(C27))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:D23">
-    <cfRule type="cellIs" dxfId="95" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="27" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 I29 D32 I32 D38 I38 D42 I42 D44 I44">
-    <cfRule type="cellIs" dxfId="94" priority="235" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="235" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G17">
-    <cfRule type="containsBlanks" dxfId="93" priority="30">
+    <cfRule type="containsBlanks" dxfId="66" priority="30">
       <formula>LEN(TRIM(F17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:G22 A36:C36 F36:H36 A40:C40 F40:H40">
-    <cfRule type="containsBlanks" dxfId="92" priority="233">
+    <cfRule type="containsBlanks" dxfId="65" priority="233">
       <formula>LEN(TRIM(A21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:G22">
-    <cfRule type="cellIs" dxfId="91" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="23" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="90" priority="220">
+    <cfRule type="containsBlanks" dxfId="63" priority="220">
       <formula>LEN(TRIM(F22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:G23">
-    <cfRule type="cellIs" dxfId="89" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="88" priority="1">
+    <cfRule type="containsBlanks" dxfId="61" priority="1">
       <formula>LEN(TRIM(F23))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="4" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="86" priority="3">
+    <cfRule type="containsBlanks" dxfId="59" priority="3">
       <formula>LEN(TRIM(F23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:H11 A11:C11">
-    <cfRule type="containsBlanks" dxfId="85" priority="155">
+    <cfRule type="containsBlanks" dxfId="58" priority="155">
       <formula>LEN(TRIM(A11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:H11">
-    <cfRule type="containsBlanks" dxfId="84" priority="152">
+    <cfRule type="containsBlanks" dxfId="57" priority="152">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:H12">
-    <cfRule type="containsBlanks" dxfId="83" priority="106">
+    <cfRule type="containsBlanks" dxfId="56" priority="106">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:H12">
-    <cfRule type="cellIs" dxfId="82" priority="107" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="107" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:H13">
-    <cfRule type="containsBlanks" dxfId="81" priority="126">
+    <cfRule type="containsBlanks" dxfId="54" priority="126">
       <formula>LEN(TRIM(F13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:H17">
-    <cfRule type="containsBlanks" dxfId="80" priority="99">
+    <cfRule type="containsBlanks" dxfId="53" priority="99">
       <formula>LEN(TRIM(F16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:H22 A36:C38 F36:H38 A40:C42 F40:H42 A21:C22 A27:C29 F27:H29">
-    <cfRule type="cellIs" dxfId="79" priority="234" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="234" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:H22">
-    <cfRule type="containsBlanks" dxfId="78" priority="17">
+    <cfRule type="containsBlanks" dxfId="51" priority="17">
       <formula>LEN(TRIM(F21))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="77" priority="226">
+    <cfRule type="containsBlanks" dxfId="50" priority="226">
       <formula>LEN(TRIM(F21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:H27">
-    <cfRule type="containsBlanks" dxfId="76" priority="169">
+    <cfRule type="containsBlanks" dxfId="49" priority="169">
       <formula>LEN(TRIM(F27))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="containsBlanks" dxfId="75" priority="20">
+    <cfRule type="containsBlanks" dxfId="48" priority="20">
       <formula>LEN(TRIM(H23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H28">
-    <cfRule type="containsBlanks" dxfId="74" priority="168">
+    <cfRule type="containsBlanks" dxfId="47" priority="168">
       <formula>LEN(TRIM(H27))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3519">
-    <cfRule type="cellIs" dxfId="73" priority="236" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="236" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:I23">
-    <cfRule type="cellIs" dxfId="72" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="21" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5891,13 +4759,13 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="8.7109375" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" style="18"/>
+    <col min="1" max="9" width="8.6640625" customWidth="1"/>
+    <col min="26" max="26" width="11.5546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="45" customHeight="1">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -5913,12 +4781,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z2" s="18">
         <v>5.5</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="5" customFormat="1" ht="25.15" customHeight="1">
+    <row r="3" spans="1:26" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -5932,12 +4800,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z4" s="18">
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="30" customHeight="1">
+    <row r="5" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>2</v>
       </c>
@@ -5953,12 +4821,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z6" s="18">
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>25</v>
       </c>
@@ -5980,12 +4848,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z8" s="18">
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -6003,7 +4871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -6021,7 +4889,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="14"/>
@@ -6035,7 +4903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15" thickBot="1">
+    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="14"/>
@@ -6046,7 +4914,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15" thickBot="1">
+    <row r="13" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -6063,7 +4931,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -6078,7 +4946,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -6093,7 +4961,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -6104,7 +4972,7 @@
       <c r="H16" s="17"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:26" ht="15" thickBot="1">
+    <row r="17" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -6115,7 +4983,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:26" ht="15" thickBot="1">
+    <row r="18" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -6132,7 +5000,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -6147,7 +5015,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
@@ -6162,7 +5030,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -6173,7 +5041,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="15" thickBot="1">
+    <row r="22" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -6184,7 +5052,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:26" ht="15" customHeight="1" thickBot="1">
+    <row r="23" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -6202,7 +5070,7 @@
       </c>
       <c r="Z23" s="19"/>
     </row>
-    <row r="24" spans="1:26" ht="15" thickBot="1">
+    <row r="24" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -6213,7 +5081,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="15.6" thickTop="1" thickBot="1">
+    <row r="25" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
@@ -6234,8 +5102,8 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" thickTop="1"/>
-    <row r="27" spans="1:26" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="26" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:26" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="22" t="s">
         <v>13</v>
       </c>
@@ -6249,7 +5117,7 @@
       <c r="I27" s="22"/>
       <c r="Z27" s="18"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
@@ -6264,7 +5132,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -6275,7 +5143,7 @@
       <c r="H29" s="17"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:26" ht="15" thickBot="1">
+    <row r="30" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -6286,7 +5154,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:26" ht="15" thickBot="1">
+    <row r="31" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -6303,7 +5171,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
@@ -6318,7 +5186,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -6329,7 +5197,7 @@
       <c r="H33" s="17"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1">
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -6340,7 +5208,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1">
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -6357,7 +5225,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1">
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -6368,7 +5236,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+    <row r="37" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>16</v>
       </c>
@@ -6389,13 +5257,13 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" thickTop="1"/>
-    <row r="40" spans="1:9">
+    <row r="38" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
@@ -6410,27 +5278,27 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A11:B12 F11:G12 A16:C16 F16:H16 A21:C21 F21:H21 A29:C29 F29:H29 A33:C33 F33:H33">
-    <cfRule type="containsBlanks" dxfId="71" priority="2">
+    <cfRule type="containsBlanks" dxfId="44" priority="2">
       <formula>LEN(TRIM(A11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C12 F11:H12 A16:C18 F16:H18 A21:C23 F21:H23 A29:C31 F29:H31 A33:C35 F33:H35">
-    <cfRule type="cellIs" dxfId="70" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="3" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:D13 F13:I13 D18 I18 D23 I23 D25 I25 D31 I31 D35 I35 D37 I37">
-    <cfRule type="cellIs" dxfId="69" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C12 H11:H12 A13:C13 G13:H13 F13:F14 A17:C18 F17:H18 A22:C23 F22:H23 A30:C31 F30:H31 A34:C35 F34:H35">
-    <cfRule type="containsBlanks" dxfId="68" priority="1">
+    <cfRule type="containsBlanks" dxfId="41" priority="1">
       <formula>LEN(TRIM(A11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3512">
-    <cfRule type="cellIs" dxfId="67" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="15" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6457,13 +5325,13 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="8.7109375" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" style="15"/>
+    <col min="1" max="9" width="8.6640625" customWidth="1"/>
+    <col min="26" max="26" width="11.5546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45" customHeight="1">
+    <row r="1" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -6476,7 +5344,7 @@
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" ht="25.15" customHeight="1">
+    <row r="3" spans="1:9" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -6487,7 +5355,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1">
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>2</v>
       </c>
@@ -6500,7 +5368,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>31</v>
       </c>
@@ -6519,7 +5387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -6534,7 +5402,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -6549,7 +5417,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -6560,7 +5428,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -6571,7 +5439,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -6588,7 +5456,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -6597,7 +5465,7 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -6606,7 +5474,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -6617,7 +5485,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:26" ht="15" thickBot="1">
+    <row r="17" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
@@ -6628,7 +5496,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:26" ht="15" thickBot="1">
+    <row r="18" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -6645,31 +5513,31 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="15" thickBot="1">
+    <row r="22" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:26" ht="15" customHeight="1" thickBot="1">
+    <row r="23" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -6680,14 +5548,14 @@
       <c r="E23" s="3"/>
       <c r="Z23" s="16"/>
     </row>
-    <row r="24" spans="1:26" ht="15" thickBot="1">
+    <row r="24" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="15.6" thickTop="1" thickBot="1">
+    <row r="25" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
@@ -6708,8 +5576,8 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" thickTop="1"/>
-    <row r="27" spans="1:26" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="26" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:26" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="22" t="s">
         <v>13</v>
       </c>
@@ -6723,7 +5591,7 @@
       <c r="I27" s="22"/>
       <c r="Z27" s="15"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
@@ -6738,7 +5606,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -6749,7 +5617,7 @@
       <c r="H29" s="17"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:26" ht="15" thickBot="1">
+    <row r="30" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -6760,7 +5628,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:26" ht="15" thickBot="1">
+    <row r="31" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -6777,7 +5645,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
@@ -6792,7 +5660,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -6803,7 +5671,7 @@
       <c r="H33" s="13"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1">
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -6814,7 +5682,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1">
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -6831,7 +5699,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1">
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -6842,7 +5710,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+    <row r="37" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>16</v>
       </c>
@@ -6863,68 +5731,68 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" thickTop="1"/>
-    <row r="40" spans="1:9">
+    <row r="38" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="26:26">
+    <row r="50" spans="26:26" x14ac:dyDescent="0.3">
       <c r="Z50" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="26:26">
+    <row r="51" spans="26:26" x14ac:dyDescent="0.3">
       <c r="Z51" s="18">
         <v>5.5</v>
       </c>
     </row>
-    <row r="52" spans="26:26">
+    <row r="52" spans="26:26" x14ac:dyDescent="0.3">
       <c r="Z52" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="26:26">
+    <row r="53" spans="26:26" x14ac:dyDescent="0.3">
       <c r="Z53" s="18">
         <v>4.5</v>
       </c>
     </row>
-    <row r="54" spans="26:26">
+    <row r="54" spans="26:26" x14ac:dyDescent="0.3">
       <c r="Z54" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="26:26">
+    <row r="55" spans="26:26" x14ac:dyDescent="0.3">
       <c r="Z55" s="18">
         <v>3.5</v>
       </c>
     </row>
-    <row r="56" spans="26:26">
+    <row r="56" spans="26:26" x14ac:dyDescent="0.3">
       <c r="Z56" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="26:26">
+    <row r="57" spans="26:26" x14ac:dyDescent="0.3">
       <c r="Z57" s="18">
         <v>2.5</v>
       </c>
     </row>
-    <row r="58" spans="26:26">
+    <row r="58" spans="26:26" x14ac:dyDescent="0.3">
       <c r="Z58" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="26:26">
+    <row r="59" spans="26:26" x14ac:dyDescent="0.3">
       <c r="Z59" s="18">
         <v>1.5</v>
       </c>
     </row>
-    <row r="60" spans="26:26">
+    <row r="60" spans="26:26" x14ac:dyDescent="0.3">
       <c r="Z60" s="18">
         <v>1</v>
       </c>
@@ -6939,151 +5807,151 @@
     <mergeCell ref="A27:I27"/>
   </mergeCells>
   <conditionalFormatting sqref="A12:B13">
-    <cfRule type="cellIs" dxfId="66" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17">
-    <cfRule type="containsBlanks" dxfId="65" priority="61">
+    <cfRule type="containsBlanks" dxfId="38" priority="61">
       <formula>LEN(TRIM(A17))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="62" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="62" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:B18">
-    <cfRule type="containsBlanks" dxfId="63" priority="9">
+    <cfRule type="containsBlanks" dxfId="36" priority="9">
       <formula>LEN(TRIM(A18))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11">
-    <cfRule type="containsBlanks" dxfId="61" priority="7">
+    <cfRule type="containsBlanks" dxfId="34" priority="7">
       <formula>LEN(TRIM(A11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:C13">
-    <cfRule type="containsBlanks" dxfId="60" priority="1">
+    <cfRule type="containsBlanks" dxfId="33" priority="1">
       <formula>LEN(TRIM(A12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:C23">
-    <cfRule type="cellIs" dxfId="59" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="42" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="58" priority="41">
+    <cfRule type="containsBlanks" dxfId="31" priority="41">
       <formula>LEN(TRIM(A22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:C31">
-    <cfRule type="containsBlanks" dxfId="57" priority="57">
+    <cfRule type="containsBlanks" dxfId="30" priority="57">
       <formula>LEN(TRIM(A30))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="58" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:C35">
-    <cfRule type="containsBlanks" dxfId="55" priority="49">
+    <cfRule type="containsBlanks" dxfId="28" priority="49">
       <formula>LEN(TRIM(A34))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="50" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="50" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C13">
-    <cfRule type="cellIs" dxfId="53" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C18">
-    <cfRule type="containsBlanks" dxfId="52" priority="11">
+    <cfRule type="containsBlanks" dxfId="25" priority="11">
       <formula>LEN(TRIM(C17))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13 D18 I18 D23 D31 D35 I35 D25 I25 D37 I37">
-    <cfRule type="cellIs" dxfId="50" priority="82" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="82" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13 D18 I18 D23 D31 I31 D35 I35">
-    <cfRule type="containsBlanks" dxfId="49" priority="69">
+    <cfRule type="containsBlanks" dxfId="22" priority="69">
       <formula>LEN(TRIM(D13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:G12 A16:C16 F16:H16 A21:C21 A29:C29 F29:H29 A33:C33 F33:H33 A11:B11">
-    <cfRule type="cellIs" dxfId="48" priority="71" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="71" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:G12 A16:C16 F16:H16 A21:C21 A29:C29 F29:H29 A33:C33 F33:H33">
-    <cfRule type="containsBlanks" dxfId="47" priority="70">
+    <cfRule type="containsBlanks" dxfId="20" priority="70">
       <formula>LEN(TRIM(A11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G17">
-    <cfRule type="containsBlanks" dxfId="46" priority="63">
+    <cfRule type="containsBlanks" dxfId="19" priority="63">
       <formula>LEN(TRIM(F17))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="64" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="64" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:G18">
-    <cfRule type="containsBlanks" dxfId="44" priority="15">
+    <cfRule type="containsBlanks" dxfId="17" priority="15">
       <formula>LEN(TRIM(F18))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:H31">
-    <cfRule type="containsBlanks" dxfId="42" priority="53">
+    <cfRule type="containsBlanks" dxfId="15" priority="53">
       <formula>LEN(TRIM(F30))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="54" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:H35">
-    <cfRule type="containsBlanks" dxfId="40" priority="45">
+    <cfRule type="containsBlanks" dxfId="13" priority="45">
       <formula>LEN(TRIM(F34))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="46" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:I13">
-    <cfRule type="cellIs" dxfId="38" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="28" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="37" priority="27">
+    <cfRule type="containsBlanks" dxfId="10" priority="27">
       <formula>LEN(TRIM(F13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H12">
-    <cfRule type="containsBlanks" dxfId="36" priority="23">
+    <cfRule type="containsBlanks" dxfId="9" priority="23">
       <formula>LEN(TRIM(H11))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="24" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H18">
-    <cfRule type="containsBlanks" dxfId="34" priority="19">
+    <cfRule type="containsBlanks" dxfId="7" priority="19">
       <formula>LEN(TRIM(H17))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="20" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="cellIs" dxfId="32" priority="72" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="72" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7103,16 +5971,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A799CF54-4FED-421D-9D1B-92D66E0AA9DE}">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="8.7109375" customWidth="1"/>
+    <col min="1" max="9" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="45" customHeight="1">
+    <row r="1" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -7125,7 +5993,7 @@
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
     </row>
-    <row r="3" spans="1:22" s="5" customFormat="1" ht="25.15" customHeight="1">
+    <row r="3" spans="1:22" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -7136,7 +6004,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="5" spans="1:22" ht="30" customHeight="1">
+    <row r="5" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>2</v>
       </c>
@@ -7149,7 +6017,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>33</v>
       </c>
@@ -7163,42 +6031,42 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" thickBot="1">
+    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="V8" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" thickBot="1">
+    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="25"/>
-      <c r="D9" s="6">
+      <c r="D9" s="6" t="str">
         <f>CPS1MOY</f>
-        <v>4.5</v>
+        <v/>
       </c>
       <c r="E9" s="2"/>
       <c r="V9" s="12">
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15" thickBot="1">
+    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="24" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="6">
+      <c r="D10" s="6" t="str">
         <f>CPS2MOY</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="E10" s="2"/>
       <c r="V10" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" thickBot="1">
+    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
         <v>19</v>
       </c>
@@ -7210,7 +6078,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:22" ht="15" thickBot="1">
+    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>20</v>
       </c>
@@ -7222,7 +6090,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:22" ht="15" thickBot="1">
+    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>25</v>
       </c>
@@ -7234,7 +6102,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:22" ht="15" thickBot="1">
+    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="24" t="s">
         <v>26</v>
       </c>
@@ -7246,7 +6114,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:22" ht="15" thickBot="1">
+    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
         <v>31</v>
       </c>
@@ -7258,7 +6126,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:22" ht="15" thickBot="1">
+    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
         <v>32</v>
       </c>
@@ -7270,27 +6138,27 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1">
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+    <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="7">
+      <c r="D18" s="7" t="str">
         <f>IF(ISERROR(AVERAGE(D9:D16)),"",MROUND(AVERAGE(D9:D16),0.5))</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="15" thickTop="1"/>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="19" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="22" t="s">
         <v>13</v>
       </c>
@@ -7303,8 +6171,8 @@
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1"/>
-    <row r="22" spans="1:9" ht="15" thickBot="1">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="24" t="s">
         <v>3</v>
       </c>
@@ -7315,7 +6183,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
         <v>5</v>
       </c>
@@ -7326,7 +6194,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1">
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
         <v>19</v>
       </c>
@@ -7337,7 +6205,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1">
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="24" t="s">
         <v>20</v>
       </c>
@@ -7348,7 +6216,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1">
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="24" t="s">
         <v>25</v>
       </c>
@@ -7359,7 +6227,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1">
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="24" t="s">
         <v>26</v>
       </c>
@@ -7370,7 +6238,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1">
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
         <v>31</v>
       </c>
@@ -7381,7 +6249,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1">
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="24" t="s">
         <v>32</v>
       </c>
@@ -7397,14 +6265,14 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1">
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+    <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
@@ -7415,13 +6283,13 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" thickTop="1"/>
-    <row r="33" spans="1:1">
+    <row r="32" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
@@ -7451,29 +6319,29 @@
     <mergeCell ref="A16:C16"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D16">
-    <cfRule type="containsBlanks" dxfId="31" priority="4">
+    <cfRule type="containsBlanks" dxfId="4" priority="4">
       <formula>LEN(TRIM(D9))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="5">
       <formula>LEN(TRIM(D9))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18 D31">
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D29">
-    <cfRule type="containsBlanks" dxfId="28" priority="1">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(D22))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="2">
       <formula>LEN(TRIM(D22))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7489,1339 +6357,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BF0C9B-EC88-4481-AAD7-B2D4FFE5D3BD}">
-  <dimension ref="A1:Z60"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
-  <cols>
-    <col min="1" max="9" width="8.7109375" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" style="18"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="45" customHeight="1">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1">
-      <c r="A5" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="6" t="str">
-        <f>IF(ISERROR(AVERAGE(BTE3PS1)),"",MROUND(AVERAGE(BTE3PS1),0.5))</f>
-        <v/>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="6" t="str">
-        <f>IF(ISERROR(AVERAGE(BTE3PS2)),"",MROUND(AVERAGE(BTE3PS2),0.5))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:26" ht="15" thickBot="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:26" ht="15" thickBot="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="6" t="str">
-        <f>IF(ISERROR(AVERAGE(DTE3PS1)),"",MROUND(AVERAGE(DTE3PS1),0.5))</f>
-        <v/>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="6" t="str">
-        <f>IF(ISERROR(AVERAGE(DTE3PS2)),"",MROUND(AVERAGE(DTE3PS2),0.5))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:26">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:26" ht="15" thickBot="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:26" ht="15" thickBot="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="6" t="str">
-        <f>IF(ISERROR(AVERAGE(TSE3PS1)),"",MROUND(AVERAGE(TSE3PS1),0.5))</f>
-        <v/>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="6" t="str">
-        <f>IF(ISERROR(AVERAGE(TSE3PS2)),"",MROUND(AVERAGE(TSE3PS2),0.5))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
-      <c r="A24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:26">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:26">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:26" ht="15" thickBot="1">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="6" t="str">
-        <f>IF(ISERROR(AVERAGE(TCO3PS1)),"",MROUND(AVERAGE(TCO3PS1),0.5))</f>
-        <v/>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="6" t="str">
-        <f>IF(ISERROR(AVERAGE(TCO3PS2)),"",MROUND(AVERAGE(TCO3PS2),0.5))</f>
-        <v/>
-      </c>
-      <c r="Z28" s="19"/>
-    </row>
-    <row r="29" spans="1:26" ht="15" thickBot="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:26" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="7" t="str">
-        <f>IF(ISERROR(AVERAGE(BTE3PS1MOY,DTE3PS1MOY,TSE3PS1MOY,TCO3PS1MOY)),"",MROUND(AVERAGE(BTE3PS1MOY,DTE3PS1MOY,TSE3PS1MOY,TCO3PS1MOY),0.5))</f>
-        <v/>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="7" t="str">
-        <f>IF(ISERROR(AVERAGE(BTE3PS2MOY,DTE3PS2MOY,TSE3PS2MOY,TCO3PS2MOY)),"",MROUND(AVERAGE(BTE3PS2MOY,DTE3PS2MOY,TSE3PS2MOY,TCO3PS2MOY),0.5))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:26" ht="15" thickTop="1"/>
-    <row r="32" spans="1:26" s="1" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="Z32" s="18"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="26:26">
-      <c r="Z50" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="26:26">
-      <c r="Z51" s="18">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="52" spans="26:26">
-      <c r="Z52" s="18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="26:26">
-      <c r="Z53" s="18">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="54" spans="26:26">
-      <c r="Z54" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="26:26">
-      <c r="Z55" s="18">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="56" spans="26:26">
-      <c r="Z56" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="26:26">
-      <c r="Z57" s="18">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="58" spans="26:26">
-      <c r="Z58" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="26:26">
-      <c r="Z59" s="18">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="60" spans="26:26">
-      <c r="Z60" s="18">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" selectLockedCells="1"/>
-  <mergeCells count="5">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A2:I2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A11:B12 F11:G12">
-    <cfRule type="containsBlanks" dxfId="26" priority="2">
-      <formula>LEN(TRIM(A11))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:B17 F16:G17 A21:C21 F21:H21 A26:C26 F26:H26">
-    <cfRule type="containsBlanks" dxfId="25" priority="6">
-      <formula>LEN(TRIM(A16))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C12 F11:H12">
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="lessThan">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:C17 F16:H17 A21:C23 F21:H23 A26:C28 F26:H28">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="lessThan">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D13 F13:I13">
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="lessThan">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:D18 F18:I18 D23 I23 D28 I28 D30 I30">
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="lessThan">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C12 H11:H12 A13:C13 F13:H13">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
-      <formula>LEN(TRIM(A11))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C17 H16:H17 A18:C18 G18:H18 F18:F19 A22:C23 F22:H23 A27:C28 F27:H28">
-    <cfRule type="containsBlanks" dxfId="19" priority="5">
-      <formula>LEN(TRIM(A16))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3517">
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="lessThan">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="ERREUR" error="Valeur des notes uniquement entre 1 et 6 par saut de 0.5." sqref="A16:C18 A26:C28 F26:H28 F21:H23 F11:H13 A21:C23 F16:H18 A11:C13" xr:uid="{5470B499-D178-49BA-BDDD-0E90BB6B392B}">
-      <formula1>$Z$50:$Z$60</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="ERREUR" error="Valeur des notes uniquement entre 1 et 6 par saut de 0.5." sqref="B24:C24 B19:C19 G19:H19 G24:H24" xr:uid="{B1D5A9A7-44A8-4EE5-AB97-B82CC9972612}">
-      <formula1>$Z$1:$Z$15</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88404E6E-0AF6-414C-8D0F-20608DEF0F1C}">
-  <dimension ref="A1:Z60"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
-  <cols>
-    <col min="1" max="9" width="8.7109375" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" style="18"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="45" customHeight="1">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1">
-      <c r="A5" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="6" t="str">
-        <f>IF(ISERROR(AVERAGE(BTE4PS1)),"",MROUND(AVERAGE(BTE4PS1),0.5))</f>
-        <v/>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="6" t="str">
-        <f>IF(ISERROR(AVERAGE(BTE4PS2)),"",MROUND(AVERAGE(BTE4PS2),0.5))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:26" ht="15" thickBot="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:26" ht="15" thickBot="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="6" t="str">
-        <f>IF(ISERROR(AVERAGE(DTE4PS1)),"",MROUND(AVERAGE(DTE4PS1),0.5))</f>
-        <v/>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="6" t="str">
-        <f>IF(ISERROR(AVERAGE(DTE4PS2)),"",MROUND(AVERAGE(DTE4PS2),0.5))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:26">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:26" ht="15" thickBot="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:26" ht="15" thickBot="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="6" t="str">
-        <f>IF(ISERROR(AVERAGE(TSE4PS1)),"",MROUND(AVERAGE(TSE4PS1),0.5))</f>
-        <v/>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="6" t="str">
-        <f>IF(ISERROR(AVERAGE(TSE4PS2)),"",MROUND(AVERAGE(TSE4PS2),0.5))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
-      <c r="A24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:26">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:26">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:26" ht="15" thickBot="1">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="6" t="str">
-        <f>IF(ISERROR(AVERAGE(TCO4PS1)),"",MROUND(AVERAGE(TCO4PS1),0.5))</f>
-        <v/>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="6" t="str">
-        <f>IF(ISERROR(AVERAGE(TCO4PS2)),"",MROUND(AVERAGE(TCO4PS2),0.5))</f>
-        <v/>
-      </c>
-      <c r="Z28" s="19"/>
-    </row>
-    <row r="29" spans="1:26" ht="15" thickBot="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:26" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="7" t="str">
-        <f>IF(ISERROR(AVERAGE(BTE4PS1MOY,DTE4PS1MOY,TSE4PS1MOY,TCO4PS1MOY)),"",MROUND(AVERAGE(BTE4PS1MOY,DTE4PS1MOY,TSE4PS1MOY,TCO4PS1MOY),0.5))</f>
-        <v/>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="7" t="str">
-        <f>IF(ISERROR(AVERAGE(BTE4PS2MOY,DTE4PS2MOY,TSE4PS2MOY,TCO4PS2MOY)),"",MROUND(AVERAGE(BTE4PS2MOY,DTE4PS2MOY,TSE4PS2MOY,TCO4PS2MOY),0.5))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:26" ht="15" thickTop="1"/>
-    <row r="32" spans="1:26" s="1" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="Z32" s="18"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="26:26">
-      <c r="Z50" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="26:26">
-      <c r="Z51" s="18">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="52" spans="26:26">
-      <c r="Z52" s="18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="26:26">
-      <c r="Z53" s="18">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="54" spans="26:26">
-      <c r="Z54" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="26:26">
-      <c r="Z55" s="18">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="56" spans="26:26">
-      <c r="Z56" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="26:26">
-      <c r="Z57" s="18">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="58" spans="26:26">
-      <c r="Z58" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="26:26">
-      <c r="Z59" s="18">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="60" spans="26:26">
-      <c r="Z60" s="18">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" selectLockedCells="1"/>
-  <mergeCells count="5">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A2:I2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A12:B12 F12:G12">
-    <cfRule type="containsBlanks" dxfId="17" priority="6">
-      <formula>LEN(TRIM(A12))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="lessThan">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B17 G17">
-    <cfRule type="containsBlanks" dxfId="15" priority="3">
-      <formula>LEN(TRIM(A17))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:B22 F22:G22">
-    <cfRule type="containsBlanks" dxfId="14" priority="1">
-      <formula>LEN(TRIM(A22))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 F11:H11 C12 H12">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="lessThan">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 F11:H11">
-    <cfRule type="containsBlanks" dxfId="12" priority="8">
-      <formula>LEN(TRIM(A11))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:C17 F16:H17 A21:C23 F21:H23 A26:C28 F26:H28">
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="lessThan">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D13 F13:I13">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="lessThan">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:D18 F18:I18 D23 I23 D28 I28 D30 I30">
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="lessThan">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C12 H11:H12 A13:C13 F13:H13">
-    <cfRule type="containsBlanks" dxfId="8" priority="10">
-      <formula>LEN(TRIM(A11))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsBlanks" dxfId="7" priority="5">
-      <formula>LEN(TRIM(C16))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C17 H16:H17 A22:C23 F22:H23 F17:F19 A18:C18 G18:H18 A27:C28 F27:H28">
-    <cfRule type="containsBlanks" dxfId="6" priority="14">
-      <formula>LEN(TRIM(A16))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16:G17 A16:B17 A21:C21 F21:H21 A26:C26 F26:H26">
-    <cfRule type="containsBlanks" dxfId="5" priority="15">
-      <formula>LEN(TRIM(A16))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="containsBlanks" dxfId="4" priority="4">
-      <formula>LEN(TRIM(H16))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3517">
-    <cfRule type="cellIs" dxfId="3" priority="18" operator="lessThan">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="ERREUR" error="Valeur des notes uniquement entre 1 et 6 par saut de 0.5." sqref="B24:C24 B19:C19 G19:H19 G24:H24" xr:uid="{CF03BF86-2824-43E9-BF07-4B1195467047}">
-      <formula1>$Z$1:$Z$15</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="ERREUR" error="Valeur des notes uniquement entre 1 et 6 par saut de 0.5." sqref="F11:H13 F21:H23 A26:C28 F26:H28 A21:C23 A11:C13 A16:C18 F16:H18" xr:uid="{A5CD581A-47F4-40D3-ACB9-6A2775AF191E}">
-      <formula1>$Z$50:$Z$60</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9780C035-7742-4003-891F-5706FEC8B320}">
-  <dimension ref="A1:V25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
-  <cols>
-    <col min="1" max="9" width="8.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="45" customHeight="1">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="1:22" s="5" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="5" spans="1:22" ht="30" customHeight="1">
-      <c r="A5" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="V7" s="12">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="15" thickBot="1">
-      <c r="V8" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="15" thickBot="1">
-      <c r="A9" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="6" t="str">
-        <f>IELE3P_SEMESTRES_12!CP3PS1MOY</f>
-        <v/>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="V9" s="12">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="15" thickBot="1">
-      <c r="A10" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="6" t="str">
-        <f>IELE3P_SEMESTRES_12!CP3PS2MOY</f>
-        <v/>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="V10" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="15" thickBot="1">
-      <c r="A11" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="6" t="str">
-        <f>IELE4P_SEMESTRES_34!CP4PS1MOY</f>
-        <v/>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:22" ht="15" thickBot="1">
-      <c r="A12" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="6" t="str">
-        <f>IELE4P_SEMESTRES_34!CP4PS2MOY</f>
-        <v/>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:22" ht="15" thickBot="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:22" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="7" t="str">
-        <f>IF(ISERROR(AVERAGE(D9:D12)),"",MROUND(AVERAGE(D9:D12),0.5))</f>
-        <v/>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:22" ht="15" customHeight="1" thickTop="1"/>
-    <row r="16" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-    </row>
-    <row r="17" spans="1:1" ht="15" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="14.45" customHeight="1"/>
-  </sheetData>
-  <sheetProtection sheet="1" selectLockedCells="1"/>
-  <mergeCells count="8">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D9:D12">
-    <cfRule type="containsBlanks" dxfId="2" priority="4">
-      <formula>LEN(TRIM(D9))=0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="5">
-      <formula>LEN(TRIM(D9))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThan">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="ERREUR" error="Valeur des notes uniquement entre 1 et 6 par saut de 0.5." sqref="B11:C11" xr:uid="{5D0B77E6-0787-4AE7-BB9F-55B35003358D}">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3874C8AB-05B1-4391-9816-BAA6BC768905}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -8839,17 +6393,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="81e70d26-bf48-4cf6-8ac1-a02ba5208bf1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="28ecda99-baeb-4159-826c-8d3ebe501c98" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8858,9 +6401,9 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7262808F74C1A479C3BB44A303B6A0F" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="cab4a3c0111c554b2187f2cf1b3f650e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81e70d26-bf48-4cf6-8ac1-a02ba5208bf1" xmlns:ns3="28ecda99-baeb-4159-826c-8d3ebe501c98" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e122d3143e7eb9975e5aea102f87885" ns2:_="" ns3:_="">
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7262808F74C1A479C3BB44A303B6A0F" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="53ca5ba934d9ea82b208c5ebaa87ee73">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81e70d26-bf48-4cf6-8ac1-a02ba5208bf1" xmlns:ns3="28ecda99-baeb-4159-826c-8d3ebe501c98" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61005504990099e8d9d64d1794496304" ns2:_="" ns3:_="">
     <xsd:import namespace="81e70d26-bf48-4cf6-8ac1-a02ba5208bf1"/>
     <xsd:import namespace="28ecda99-baeb-4159-826c-8d3ebe501c98"/>
     <xsd:element name="properties">
@@ -8882,6 +6425,7 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -8942,6 +6486,11 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="22" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
@@ -9087,14 +6636,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="81e70d26-bf48-4cf6-8ac1-a02ba5208bf1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="28ecda99-baeb-4159-826c-8d3ebe501c98" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A50F532E-7FD8-48AD-9223-BF39E428C2D9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477526C9-DFDA-4A30-8977-A246D3354F4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B15F2F5E-8AC3-438C-AD92-51480CE02161}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485C4067-0370-4895-A5CF-B8A2A041ACC7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47380F73-6E9D-48B4-9F42-08B6FBEA66FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF42EF24-D724-4D26-918E-7A223B8E2755}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="81e70d26-bf48-4cf6-8ac1-a02ba5208bf1"/>
+    <ds:schemaRef ds:uri="28ecda99-baeb-4159-826c-8d3ebe501c98"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>